--- a/data-raw/panse.cotton.xlsx
+++ b/data-raw/panse.cotton.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6398F-C7EB-4CF9-9D30-5C7A41813F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="15360" windowHeight="9000"/>
+    <workbookView xWindow="40455" yWindow="2445" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,9 +86,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -118,7 +126,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -224,7 +232,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -366,21 +374,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>93</v>
       </c>
@@ -478,7 +486,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>49</v>
       </c>
@@ -576,7 +584,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>89</v>
       </c>
@@ -674,7 +682,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>85</v>
       </c>
@@ -772,7 +780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>63</v>
       </c>
@@ -870,7 +878,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>86</v>
       </c>
@@ -968,7 +976,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>62</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>45</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>51</v>
       </c>
@@ -1360,7 +1368,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>81</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>74</v>
       </c>
@@ -1556,7 +1564,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>85</v>
       </c>
@@ -1654,7 +1662,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>84</v>
       </c>
@@ -1752,7 +1760,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>85</v>
       </c>
@@ -1850,7 +1858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>82</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>46</v>
       </c>
@@ -2046,7 +2054,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>71</v>
       </c>
@@ -2144,7 +2152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>58</v>
       </c>
@@ -2242,7 +2250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>65</v>
       </c>
@@ -2340,7 +2348,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>57</v>
       </c>
@@ -2438,7 +2446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>60</v>
       </c>
@@ -2536,7 +2544,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>59</v>
       </c>
@@ -2634,7 +2642,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>63</v>
       </c>
@@ -2732,7 +2740,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2830,7 +2838,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>39</v>
       </c>
@@ -2928,7 +2936,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>79</v>
       </c>
@@ -3026,7 +3034,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>51</v>
       </c>
@@ -3124,7 +3132,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>58</v>
       </c>
@@ -3222,7 +3230,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>56</v>
       </c>
@@ -3320,7 +3328,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>42</v>
       </c>
@@ -3418,7 +3426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>57</v>
       </c>
@@ -3516,7 +3524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>44</v>
       </c>
@@ -3614,7 +3622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>99</v>
       </c>
@@ -3712,7 +3720,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>58</v>
       </c>
@@ -3810,7 +3818,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>79</v>
       </c>
@@ -3908,7 +3916,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>89</v>
       </c>
@@ -4006,7 +4014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>62</v>
       </c>
@@ -4104,7 +4112,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>81</v>
       </c>
@@ -4202,7 +4210,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>31</v>
       </c>
